--- a/Python/LPF.xlsx
+++ b/Python/LPF.xlsx
@@ -14,18 +14,54 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="16">
   <si>
-    <t>it_l</t>
+    <t>it</t>
   </si>
   <si>
-    <t>g_l</t>
+    <t>g</t>
   </si>
   <si>
-    <t>x_l</t>
+    <t>x</t>
   </si>
   <si>
-    <t>[0.4986 3.4982 0.0015 0.0004 0.0014 2.5004]</t>
+    <t>s</t>
+  </si>
+  <si>
+    <t>[9.9765 9.9765 1.3334 1.3334]</t>
+  </si>
+  <si>
+    <t>[2.2809 2.2809 1.3338 1.3338]</t>
+  </si>
+  <si>
+    <t>[3.5521 3.5521 1.3336 1.3336]</t>
+  </si>
+  <si>
+    <t>[4.7515 4.7515 1.3335 1.3335]</t>
+  </si>
+  <si>
+    <t>[5.6932 5.6932 1.3335 1.3335]</t>
+  </si>
+  <si>
+    <t>[7.3331 7.3331 1.3334 1.3334]</t>
+  </si>
+  <si>
+    <t>[0.0002 0.0002 3.7252 3.7252]</t>
+  </si>
+  <si>
+    <t>[0.0012 0.0012 3.7272 3.7272]</t>
+  </si>
+  <si>
+    <t>[0.0007 0.0007 3.7261 3.7261]</t>
+  </si>
+  <si>
+    <t>[0.0005 0.0005 3.7257 3.7257]</t>
+  </si>
+  <si>
+    <t>[0.0004 0.0004 3.7255 3.7255]</t>
+  </si>
+  <si>
+    <t>[0.0003 0.0003 3.7253 3.7253]</t>
   </si>
 </sst>
 </file>
@@ -383,13 +419,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:D301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -399,126 +435,4208 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>-3.000000000000002</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.8901865544321232</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
         <v>2</v>
       </c>
-      <c r="B2">
-        <v>2.954665485182867</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B4">
+        <v>-1.653468030903973</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>8.100814564699174</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>3.556187278248036</v>
-      </c>
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
+      <c r="B5">
+        <v>-4.052732390979385</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>-5.936372149853218</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
         <v>5</v>
       </c>
-      <c r="B5">
-        <v>1.311914592336194</v>
-      </c>
-      <c r="C5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
+      <c r="B7">
+        <v>-9.21634865358757</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
         <v>6</v>
       </c>
-      <c r="B6">
-        <v>1.137992871174374</v>
-      </c>
-      <c r="C6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7">
+      <c r="B8">
+        <v>-9.21634865358757</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
         <v>7</v>
       </c>
-      <c r="B7">
-        <v>0.7385703112864803</v>
-      </c>
-      <c r="C7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8">
+      <c r="B9">
+        <v>-9.21634865358757</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
         <v>8</v>
       </c>
-      <c r="B8">
-        <v>0.4946822552668593</v>
-      </c>
-      <c r="C8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9">
+      <c r="B10">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
         <v>9</v>
       </c>
-      <c r="B9">
-        <v>0.2020862057779667</v>
-      </c>
-      <c r="C9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10">
-        <v>10</v>
-      </c>
-      <c r="B10">
-        <v>0.08702518081961941</v>
-      </c>
-      <c r="C10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11">
+      <c r="B11">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
         <v>11</v>
       </c>
-      <c r="B11">
-        <v>0.01170106196206433</v>
-      </c>
-      <c r="C11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12">
+      <c r="B13">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
         <v>12</v>
       </c>
-      <c r="B12">
-        <v>0.004340690574155204</v>
-      </c>
-      <c r="C12" t="s">
-        <v>3</v>
+      <c r="B14">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C32" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C34" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C35" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C36" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C37" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C38" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C39" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C40" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C41" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C42" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C43" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C44" t="s">
+        <v>4</v>
+      </c>
+      <c r="D44" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C45" t="s">
+        <v>4</v>
+      </c>
+      <c r="D45" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C46" t="s">
+        <v>4</v>
+      </c>
+      <c r="D46" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C47" t="s">
+        <v>4</v>
+      </c>
+      <c r="D47" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C48" t="s">
+        <v>4</v>
+      </c>
+      <c r="D48" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C49" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C50" t="s">
+        <v>4</v>
+      </c>
+      <c r="D50" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C51" t="s">
+        <v>4</v>
+      </c>
+      <c r="D51" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C52" t="s">
+        <v>4</v>
+      </c>
+      <c r="D52" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C53" t="s">
+        <v>4</v>
+      </c>
+      <c r="D53" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C54" t="s">
+        <v>4</v>
+      </c>
+      <c r="D54" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C55" t="s">
+        <v>4</v>
+      </c>
+      <c r="D55" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C56" t="s">
+        <v>4</v>
+      </c>
+      <c r="D56" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C57" t="s">
+        <v>4</v>
+      </c>
+      <c r="D57" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C58" t="s">
+        <v>4</v>
+      </c>
+      <c r="D58" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C59" t="s">
+        <v>4</v>
+      </c>
+      <c r="D59" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C60" t="s">
+        <v>4</v>
+      </c>
+      <c r="D60" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C61" t="s">
+        <v>4</v>
+      </c>
+      <c r="D61" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C62" t="s">
+        <v>4</v>
+      </c>
+      <c r="D62" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C63" t="s">
+        <v>4</v>
+      </c>
+      <c r="D63" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C64" t="s">
+        <v>4</v>
+      </c>
+      <c r="D64" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C65" t="s">
+        <v>4</v>
+      </c>
+      <c r="D65" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C66" t="s">
+        <v>4</v>
+      </c>
+      <c r="D66" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C67" t="s">
+        <v>4</v>
+      </c>
+      <c r="D67" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68">
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C68" t="s">
+        <v>4</v>
+      </c>
+      <c r="D68" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69">
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C69" t="s">
+        <v>4</v>
+      </c>
+      <c r="D69" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70">
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C70" t="s">
+        <v>4</v>
+      </c>
+      <c r="D70" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C71" t="s">
+        <v>4</v>
+      </c>
+      <c r="D71" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C72" t="s">
+        <v>4</v>
+      </c>
+      <c r="D72" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73">
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C73" t="s">
+        <v>4</v>
+      </c>
+      <c r="D73" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74">
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C74" t="s">
+        <v>4</v>
+      </c>
+      <c r="D74" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75">
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C75" t="s">
+        <v>4</v>
+      </c>
+      <c r="D75" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76">
+        <v>74</v>
+      </c>
+      <c r="B76">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C76" t="s">
+        <v>4</v>
+      </c>
+      <c r="D76" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77">
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C77" t="s">
+        <v>4</v>
+      </c>
+      <c r="D77" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78">
+        <v>76</v>
+      </c>
+      <c r="B78">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C78" t="s">
+        <v>4</v>
+      </c>
+      <c r="D78" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79">
+        <v>77</v>
+      </c>
+      <c r="B79">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C79" t="s">
+        <v>4</v>
+      </c>
+      <c r="D79" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80">
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C80" t="s">
+        <v>4</v>
+      </c>
+      <c r="D80" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81">
+        <v>79</v>
+      </c>
+      <c r="B81">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C81" t="s">
+        <v>4</v>
+      </c>
+      <c r="D81" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82">
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C82" t="s">
+        <v>4</v>
+      </c>
+      <c r="D82" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83">
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C83" t="s">
+        <v>4</v>
+      </c>
+      <c r="D83" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84">
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C84" t="s">
+        <v>4</v>
+      </c>
+      <c r="D84" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85">
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C85" t="s">
+        <v>4</v>
+      </c>
+      <c r="D85" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86">
+        <v>84</v>
+      </c>
+      <c r="B86">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C86" t="s">
+        <v>4</v>
+      </c>
+      <c r="D86" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87">
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C87" t="s">
+        <v>4</v>
+      </c>
+      <c r="D87" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88">
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C88" t="s">
+        <v>4</v>
+      </c>
+      <c r="D88" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89">
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C89" t="s">
+        <v>4</v>
+      </c>
+      <c r="D89" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90">
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C90" t="s">
+        <v>4</v>
+      </c>
+      <c r="D90" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91">
+        <v>89</v>
+      </c>
+      <c r="B91">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C91" t="s">
+        <v>4</v>
+      </c>
+      <c r="D91" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92">
+        <v>90</v>
+      </c>
+      <c r="B92">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C92" t="s">
+        <v>4</v>
+      </c>
+      <c r="D92" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93">
+        <v>91</v>
+      </c>
+      <c r="B93">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C93" t="s">
+        <v>4</v>
+      </c>
+      <c r="D93" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94">
+        <v>92</v>
+      </c>
+      <c r="B94">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C94" t="s">
+        <v>4</v>
+      </c>
+      <c r="D94" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95">
+        <v>93</v>
+      </c>
+      <c r="B95">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C95" t="s">
+        <v>4</v>
+      </c>
+      <c r="D95" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96">
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C96" t="s">
+        <v>4</v>
+      </c>
+      <c r="D96" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97">
+        <v>95</v>
+      </c>
+      <c r="B97">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C97" t="s">
+        <v>4</v>
+      </c>
+      <c r="D97" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98">
+        <v>96</v>
+      </c>
+      <c r="B98">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C98" t="s">
+        <v>4</v>
+      </c>
+      <c r="D98" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99">
+        <v>97</v>
+      </c>
+      <c r="B99">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C99" t="s">
+        <v>4</v>
+      </c>
+      <c r="D99" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100">
+        <v>98</v>
+      </c>
+      <c r="B100">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C100" t="s">
+        <v>4</v>
+      </c>
+      <c r="D100" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101">
+        <v>99</v>
+      </c>
+      <c r="B101">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C101" t="s">
+        <v>4</v>
+      </c>
+      <c r="D101" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102">
+        <v>100</v>
+      </c>
+      <c r="B102">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C102" t="s">
+        <v>4</v>
+      </c>
+      <c r="D102" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103">
+        <v>101</v>
+      </c>
+      <c r="B103">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C103" t="s">
+        <v>4</v>
+      </c>
+      <c r="D103" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104">
+        <v>102</v>
+      </c>
+      <c r="B104">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C104" t="s">
+        <v>4</v>
+      </c>
+      <c r="D104" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105">
+        <v>103</v>
+      </c>
+      <c r="B105">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C105" t="s">
+        <v>4</v>
+      </c>
+      <c r="D105" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106">
+        <v>104</v>
+      </c>
+      <c r="B106">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C106" t="s">
+        <v>4</v>
+      </c>
+      <c r="D106" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107">
+        <v>105</v>
+      </c>
+      <c r="B107">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C107" t="s">
+        <v>4</v>
+      </c>
+      <c r="D107" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108">
+        <v>106</v>
+      </c>
+      <c r="B108">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C108" t="s">
+        <v>4</v>
+      </c>
+      <c r="D108" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109">
+        <v>107</v>
+      </c>
+      <c r="B109">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C109" t="s">
+        <v>4</v>
+      </c>
+      <c r="D109" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110">
+        <v>108</v>
+      </c>
+      <c r="B110">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C110" t="s">
+        <v>4</v>
+      </c>
+      <c r="D110" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111">
+        <v>109</v>
+      </c>
+      <c r="B111">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C111" t="s">
+        <v>4</v>
+      </c>
+      <c r="D111" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112">
+        <v>110</v>
+      </c>
+      <c r="B112">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C112" t="s">
+        <v>4</v>
+      </c>
+      <c r="D112" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113">
+        <v>111</v>
+      </c>
+      <c r="B113">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C113" t="s">
+        <v>4</v>
+      </c>
+      <c r="D113" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114">
+        <v>112</v>
+      </c>
+      <c r="B114">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C114" t="s">
+        <v>4</v>
+      </c>
+      <c r="D114" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115">
+        <v>113</v>
+      </c>
+      <c r="B115">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C115" t="s">
+        <v>4</v>
+      </c>
+      <c r="D115" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116">
+        <v>114</v>
+      </c>
+      <c r="B116">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C116" t="s">
+        <v>4</v>
+      </c>
+      <c r="D116" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117">
+        <v>115</v>
+      </c>
+      <c r="B117">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C117" t="s">
+        <v>4</v>
+      </c>
+      <c r="D117" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118">
+        <v>116</v>
+      </c>
+      <c r="B118">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C118" t="s">
+        <v>4</v>
+      </c>
+      <c r="D118" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119">
+        <v>117</v>
+      </c>
+      <c r="B119">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C119" t="s">
+        <v>4</v>
+      </c>
+      <c r="D119" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120">
+        <v>118</v>
+      </c>
+      <c r="B120">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C120" t="s">
+        <v>4</v>
+      </c>
+      <c r="D120" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121">
+        <v>119</v>
+      </c>
+      <c r="B121">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C121" t="s">
+        <v>4</v>
+      </c>
+      <c r="D121" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122">
+        <v>120</v>
+      </c>
+      <c r="B122">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C122" t="s">
+        <v>4</v>
+      </c>
+      <c r="D122" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123">
+        <v>121</v>
+      </c>
+      <c r="B123">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C123" t="s">
+        <v>4</v>
+      </c>
+      <c r="D123" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124">
+        <v>122</v>
+      </c>
+      <c r="B124">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C124" t="s">
+        <v>4</v>
+      </c>
+      <c r="D124" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125">
+        <v>123</v>
+      </c>
+      <c r="B125">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C125" t="s">
+        <v>4</v>
+      </c>
+      <c r="D125" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126">
+        <v>124</v>
+      </c>
+      <c r="B126">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C126" t="s">
+        <v>4</v>
+      </c>
+      <c r="D126" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127">
+        <v>125</v>
+      </c>
+      <c r="B127">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C127" t="s">
+        <v>4</v>
+      </c>
+      <c r="D127" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128">
+        <v>126</v>
+      </c>
+      <c r="B128">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C128" t="s">
+        <v>4</v>
+      </c>
+      <c r="D128" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129">
+        <v>127</v>
+      </c>
+      <c r="B129">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C129" t="s">
+        <v>4</v>
+      </c>
+      <c r="D129" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130">
+        <v>128</v>
+      </c>
+      <c r="B130">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C130" t="s">
+        <v>4</v>
+      </c>
+      <c r="D130" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131">
+        <v>129</v>
+      </c>
+      <c r="B131">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C131" t="s">
+        <v>4</v>
+      </c>
+      <c r="D131" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132">
+        <v>130</v>
+      </c>
+      <c r="B132">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C132" t="s">
+        <v>4</v>
+      </c>
+      <c r="D132" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133">
+        <v>131</v>
+      </c>
+      <c r="B133">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C133" t="s">
+        <v>4</v>
+      </c>
+      <c r="D133" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134">
+        <v>132</v>
+      </c>
+      <c r="B134">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C134" t="s">
+        <v>4</v>
+      </c>
+      <c r="D134" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135">
+        <v>133</v>
+      </c>
+      <c r="B135">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C135" t="s">
+        <v>4</v>
+      </c>
+      <c r="D135" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136">
+        <v>134</v>
+      </c>
+      <c r="B136">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C136" t="s">
+        <v>4</v>
+      </c>
+      <c r="D136" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137">
+        <v>135</v>
+      </c>
+      <c r="B137">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C137" t="s">
+        <v>4</v>
+      </c>
+      <c r="D137" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138">
+        <v>136</v>
+      </c>
+      <c r="B138">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C138" t="s">
+        <v>4</v>
+      </c>
+      <c r="D138" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139">
+        <v>137</v>
+      </c>
+      <c r="B139">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C139" t="s">
+        <v>4</v>
+      </c>
+      <c r="D139" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140">
+        <v>138</v>
+      </c>
+      <c r="B140">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C140" t="s">
+        <v>4</v>
+      </c>
+      <c r="D140" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141">
+        <v>139</v>
+      </c>
+      <c r="B141">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C141" t="s">
+        <v>4</v>
+      </c>
+      <c r="D141" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142">
+        <v>140</v>
+      </c>
+      <c r="B142">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C142" t="s">
+        <v>4</v>
+      </c>
+      <c r="D142" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143">
+        <v>141</v>
+      </c>
+      <c r="B143">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C143" t="s">
+        <v>4</v>
+      </c>
+      <c r="D143" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144">
+        <v>142</v>
+      </c>
+      <c r="B144">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C144" t="s">
+        <v>4</v>
+      </c>
+      <c r="D144" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145">
+        <v>143</v>
+      </c>
+      <c r="B145">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C145" t="s">
+        <v>4</v>
+      </c>
+      <c r="D145" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146">
+        <v>144</v>
+      </c>
+      <c r="B146">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C146" t="s">
+        <v>4</v>
+      </c>
+      <c r="D146" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147">
+        <v>145</v>
+      </c>
+      <c r="B147">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C147" t="s">
+        <v>4</v>
+      </c>
+      <c r="D147" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148">
+        <v>146</v>
+      </c>
+      <c r="B148">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C148" t="s">
+        <v>4</v>
+      </c>
+      <c r="D148" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149">
+        <v>147</v>
+      </c>
+      <c r="B149">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C149" t="s">
+        <v>4</v>
+      </c>
+      <c r="D149" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150">
+        <v>148</v>
+      </c>
+      <c r="B150">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C150" t="s">
+        <v>4</v>
+      </c>
+      <c r="D150" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151">
+        <v>149</v>
+      </c>
+      <c r="B151">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C151" t="s">
+        <v>4</v>
+      </c>
+      <c r="D151" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152">
+        <v>150</v>
+      </c>
+      <c r="B152">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C152" t="s">
+        <v>4</v>
+      </c>
+      <c r="D152" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153">
+        <v>151</v>
+      </c>
+      <c r="B153">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C153" t="s">
+        <v>4</v>
+      </c>
+      <c r="D153" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154">
+        <v>152</v>
+      </c>
+      <c r="B154">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C154" t="s">
+        <v>4</v>
+      </c>
+      <c r="D154" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155">
+        <v>153</v>
+      </c>
+      <c r="B155">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C155" t="s">
+        <v>4</v>
+      </c>
+      <c r="D155" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156">
+        <v>154</v>
+      </c>
+      <c r="B156">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C156" t="s">
+        <v>4</v>
+      </c>
+      <c r="D156" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157">
+        <v>155</v>
+      </c>
+      <c r="B157">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C157" t="s">
+        <v>4</v>
+      </c>
+      <c r="D157" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158">
+        <v>156</v>
+      </c>
+      <c r="B158">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C158" t="s">
+        <v>4</v>
+      </c>
+      <c r="D158" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159">
+        <v>157</v>
+      </c>
+      <c r="B159">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C159" t="s">
+        <v>4</v>
+      </c>
+      <c r="D159" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160">
+        <v>158</v>
+      </c>
+      <c r="B160">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C160" t="s">
+        <v>4</v>
+      </c>
+      <c r="D160" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161">
+        <v>159</v>
+      </c>
+      <c r="B161">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C161" t="s">
+        <v>4</v>
+      </c>
+      <c r="D161" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162">
+        <v>160</v>
+      </c>
+      <c r="B162">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C162" t="s">
+        <v>4</v>
+      </c>
+      <c r="D162" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163">
+        <v>161</v>
+      </c>
+      <c r="B163">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C163" t="s">
+        <v>4</v>
+      </c>
+      <c r="D163" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164">
+        <v>162</v>
+      </c>
+      <c r="B164">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C164" t="s">
+        <v>4</v>
+      </c>
+      <c r="D164" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165">
+        <v>163</v>
+      </c>
+      <c r="B165">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C165" t="s">
+        <v>4</v>
+      </c>
+      <c r="D165" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166">
+        <v>164</v>
+      </c>
+      <c r="B166">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C166" t="s">
+        <v>4</v>
+      </c>
+      <c r="D166" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167">
+        <v>165</v>
+      </c>
+      <c r="B167">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C167" t="s">
+        <v>4</v>
+      </c>
+      <c r="D167" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168">
+        <v>166</v>
+      </c>
+      <c r="B168">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C168" t="s">
+        <v>4</v>
+      </c>
+      <c r="D168" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169">
+        <v>167</v>
+      </c>
+      <c r="B169">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C169" t="s">
+        <v>4</v>
+      </c>
+      <c r="D169" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170">
+        <v>168</v>
+      </c>
+      <c r="B170">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C170" t="s">
+        <v>4</v>
+      </c>
+      <c r="D170" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171">
+        <v>169</v>
+      </c>
+      <c r="B171">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C171" t="s">
+        <v>4</v>
+      </c>
+      <c r="D171" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172">
+        <v>170</v>
+      </c>
+      <c r="B172">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C172" t="s">
+        <v>4</v>
+      </c>
+      <c r="D172" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173">
+        <v>171</v>
+      </c>
+      <c r="B173">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C173" t="s">
+        <v>4</v>
+      </c>
+      <c r="D173" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174">
+        <v>172</v>
+      </c>
+      <c r="B174">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C174" t="s">
+        <v>4</v>
+      </c>
+      <c r="D174" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175">
+        <v>173</v>
+      </c>
+      <c r="B175">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C175" t="s">
+        <v>4</v>
+      </c>
+      <c r="D175" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176">
+        <v>174</v>
+      </c>
+      <c r="B176">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C176" t="s">
+        <v>4</v>
+      </c>
+      <c r="D176" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177">
+        <v>175</v>
+      </c>
+      <c r="B177">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C177" t="s">
+        <v>4</v>
+      </c>
+      <c r="D177" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178">
+        <v>176</v>
+      </c>
+      <c r="B178">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C178" t="s">
+        <v>4</v>
+      </c>
+      <c r="D178" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179">
+        <v>177</v>
+      </c>
+      <c r="B179">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C179" t="s">
+        <v>4</v>
+      </c>
+      <c r="D179" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180">
+        <v>178</v>
+      </c>
+      <c r="B180">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C180" t="s">
+        <v>4</v>
+      </c>
+      <c r="D180" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181">
+        <v>179</v>
+      </c>
+      <c r="B181">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C181" t="s">
+        <v>4</v>
+      </c>
+      <c r="D181" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182">
+        <v>180</v>
+      </c>
+      <c r="B182">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C182" t="s">
+        <v>4</v>
+      </c>
+      <c r="D182" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183">
+        <v>181</v>
+      </c>
+      <c r="B183">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C183" t="s">
+        <v>4</v>
+      </c>
+      <c r="D183" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184">
+        <v>182</v>
+      </c>
+      <c r="B184">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C184" t="s">
+        <v>4</v>
+      </c>
+      <c r="D184" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185">
+        <v>183</v>
+      </c>
+      <c r="B185">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C185" t="s">
+        <v>4</v>
+      </c>
+      <c r="D185" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186">
+        <v>184</v>
+      </c>
+      <c r="B186">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C186" t="s">
+        <v>4</v>
+      </c>
+      <c r="D186" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187">
+        <v>185</v>
+      </c>
+      <c r="B187">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C187" t="s">
+        <v>4</v>
+      </c>
+      <c r="D187" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188">
+        <v>186</v>
+      </c>
+      <c r="B188">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C188" t="s">
+        <v>4</v>
+      </c>
+      <c r="D188" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189">
+        <v>187</v>
+      </c>
+      <c r="B189">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C189" t="s">
+        <v>4</v>
+      </c>
+      <c r="D189" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190">
+        <v>188</v>
+      </c>
+      <c r="B190">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C190" t="s">
+        <v>4</v>
+      </c>
+      <c r="D190" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191">
+        <v>189</v>
+      </c>
+      <c r="B191">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C191" t="s">
+        <v>4</v>
+      </c>
+      <c r="D191" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192">
+        <v>190</v>
+      </c>
+      <c r="B192">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C192" t="s">
+        <v>4</v>
+      </c>
+      <c r="D192" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193">
+        <v>191</v>
+      </c>
+      <c r="B193">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C193" t="s">
+        <v>4</v>
+      </c>
+      <c r="D193" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194">
+        <v>192</v>
+      </c>
+      <c r="B194">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C194" t="s">
+        <v>4</v>
+      </c>
+      <c r="D194" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195">
+        <v>193</v>
+      </c>
+      <c r="B195">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C195" t="s">
+        <v>4</v>
+      </c>
+      <c r="D195" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196">
+        <v>194</v>
+      </c>
+      <c r="B196">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C196" t="s">
+        <v>4</v>
+      </c>
+      <c r="D196" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197">
+        <v>195</v>
+      </c>
+      <c r="B197">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C197" t="s">
+        <v>4</v>
+      </c>
+      <c r="D197" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198">
+        <v>196</v>
+      </c>
+      <c r="B198">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C198" t="s">
+        <v>4</v>
+      </c>
+      <c r="D198" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199">
+        <v>197</v>
+      </c>
+      <c r="B199">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C199" t="s">
+        <v>4</v>
+      </c>
+      <c r="D199" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200">
+        <v>198</v>
+      </c>
+      <c r="B200">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C200" t="s">
+        <v>4</v>
+      </c>
+      <c r="D200" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201">
+        <v>199</v>
+      </c>
+      <c r="B201">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C201" t="s">
+        <v>4</v>
+      </c>
+      <c r="D201" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202">
+        <v>200</v>
+      </c>
+      <c r="B202">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C202" t="s">
+        <v>4</v>
+      </c>
+      <c r="D202" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203">
+        <v>201</v>
+      </c>
+      <c r="B203">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C203" t="s">
+        <v>4</v>
+      </c>
+      <c r="D203" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204">
+        <v>202</v>
+      </c>
+      <c r="B204">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C204" t="s">
+        <v>4</v>
+      </c>
+      <c r="D204" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205">
+        <v>203</v>
+      </c>
+      <c r="B205">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C205" t="s">
+        <v>4</v>
+      </c>
+      <c r="D205" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206">
+        <v>204</v>
+      </c>
+      <c r="B206">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C206" t="s">
+        <v>4</v>
+      </c>
+      <c r="D206" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207">
+        <v>205</v>
+      </c>
+      <c r="B207">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C207" t="s">
+        <v>4</v>
+      </c>
+      <c r="D207" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208">
+        <v>206</v>
+      </c>
+      <c r="B208">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C208" t="s">
+        <v>4</v>
+      </c>
+      <c r="D208" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209">
+        <v>207</v>
+      </c>
+      <c r="B209">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C209" t="s">
+        <v>4</v>
+      </c>
+      <c r="D209" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210">
+        <v>208</v>
+      </c>
+      <c r="B210">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C210" t="s">
+        <v>4</v>
+      </c>
+      <c r="D210" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211">
+        <v>209</v>
+      </c>
+      <c r="B211">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C211" t="s">
+        <v>4</v>
+      </c>
+      <c r="D211" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212">
+        <v>210</v>
+      </c>
+      <c r="B212">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C212" t="s">
+        <v>4</v>
+      </c>
+      <c r="D212" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213">
+        <v>211</v>
+      </c>
+      <c r="B213">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C213" t="s">
+        <v>4</v>
+      </c>
+      <c r="D213" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214">
+        <v>212</v>
+      </c>
+      <c r="B214">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C214" t="s">
+        <v>4</v>
+      </c>
+      <c r="D214" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215">
+        <v>213</v>
+      </c>
+      <c r="B215">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C215" t="s">
+        <v>4</v>
+      </c>
+      <c r="D215" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216">
+        <v>214</v>
+      </c>
+      <c r="B216">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C216" t="s">
+        <v>4</v>
+      </c>
+      <c r="D216" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217">
+        <v>215</v>
+      </c>
+      <c r="B217">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C217" t="s">
+        <v>4</v>
+      </c>
+      <c r="D217" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218">
+        <v>216</v>
+      </c>
+      <c r="B218">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C218" t="s">
+        <v>4</v>
+      </c>
+      <c r="D218" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219">
+        <v>217</v>
+      </c>
+      <c r="B219">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C219" t="s">
+        <v>4</v>
+      </c>
+      <c r="D219" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220">
+        <v>218</v>
+      </c>
+      <c r="B220">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C220" t="s">
+        <v>4</v>
+      </c>
+      <c r="D220" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221">
+        <v>219</v>
+      </c>
+      <c r="B221">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C221" t="s">
+        <v>4</v>
+      </c>
+      <c r="D221" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222">
+        <v>220</v>
+      </c>
+      <c r="B222">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C222" t="s">
+        <v>4</v>
+      </c>
+      <c r="D222" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223">
+        <v>221</v>
+      </c>
+      <c r="B223">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C223" t="s">
+        <v>4</v>
+      </c>
+      <c r="D223" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224">
+        <v>222</v>
+      </c>
+      <c r="B224">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C224" t="s">
+        <v>4</v>
+      </c>
+      <c r="D224" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225">
+        <v>223</v>
+      </c>
+      <c r="B225">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C225" t="s">
+        <v>4</v>
+      </c>
+      <c r="D225" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4">
+      <c r="A226">
+        <v>224</v>
+      </c>
+      <c r="B226">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C226" t="s">
+        <v>4</v>
+      </c>
+      <c r="D226" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227">
+        <v>225</v>
+      </c>
+      <c r="B227">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C227" t="s">
+        <v>4</v>
+      </c>
+      <c r="D227" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4">
+      <c r="A228">
+        <v>226</v>
+      </c>
+      <c r="B228">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C228" t="s">
+        <v>4</v>
+      </c>
+      <c r="D228" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4">
+      <c r="A229">
+        <v>227</v>
+      </c>
+      <c r="B229">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C229" t="s">
+        <v>4</v>
+      </c>
+      <c r="D229" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4">
+      <c r="A230">
+        <v>228</v>
+      </c>
+      <c r="B230">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C230" t="s">
+        <v>4</v>
+      </c>
+      <c r="D230" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4">
+      <c r="A231">
+        <v>229</v>
+      </c>
+      <c r="B231">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C231" t="s">
+        <v>4</v>
+      </c>
+      <c r="D231" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4">
+      <c r="A232">
+        <v>230</v>
+      </c>
+      <c r="B232">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C232" t="s">
+        <v>4</v>
+      </c>
+      <c r="D232" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4">
+      <c r="A233">
+        <v>231</v>
+      </c>
+      <c r="B233">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C233" t="s">
+        <v>4</v>
+      </c>
+      <c r="D233" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4">
+      <c r="A234">
+        <v>232</v>
+      </c>
+      <c r="B234">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C234" t="s">
+        <v>4</v>
+      </c>
+      <c r="D234" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4">
+      <c r="A235">
+        <v>233</v>
+      </c>
+      <c r="B235">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C235" t="s">
+        <v>4</v>
+      </c>
+      <c r="D235" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4">
+      <c r="A236">
+        <v>234</v>
+      </c>
+      <c r="B236">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C236" t="s">
+        <v>4</v>
+      </c>
+      <c r="D236" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4">
+      <c r="A237">
+        <v>235</v>
+      </c>
+      <c r="B237">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C237" t="s">
+        <v>4</v>
+      </c>
+      <c r="D237" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4">
+      <c r="A238">
+        <v>236</v>
+      </c>
+      <c r="B238">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C238" t="s">
+        <v>4</v>
+      </c>
+      <c r="D238" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4">
+      <c r="A239">
+        <v>237</v>
+      </c>
+      <c r="B239">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C239" t="s">
+        <v>4</v>
+      </c>
+      <c r="D239" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4">
+      <c r="A240">
+        <v>238</v>
+      </c>
+      <c r="B240">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C240" t="s">
+        <v>4</v>
+      </c>
+      <c r="D240" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4">
+      <c r="A241">
+        <v>239</v>
+      </c>
+      <c r="B241">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C241" t="s">
+        <v>4</v>
+      </c>
+      <c r="D241" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4">
+      <c r="A242">
+        <v>240</v>
+      </c>
+      <c r="B242">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C242" t="s">
+        <v>4</v>
+      </c>
+      <c r="D242" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4">
+      <c r="A243">
+        <v>241</v>
+      </c>
+      <c r="B243">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C243" t="s">
+        <v>4</v>
+      </c>
+      <c r="D243" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4">
+      <c r="A244">
+        <v>242</v>
+      </c>
+      <c r="B244">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C244" t="s">
+        <v>4</v>
+      </c>
+      <c r="D244" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4">
+      <c r="A245">
+        <v>243</v>
+      </c>
+      <c r="B245">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C245" t="s">
+        <v>4</v>
+      </c>
+      <c r="D245" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4">
+      <c r="A246">
+        <v>244</v>
+      </c>
+      <c r="B246">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C246" t="s">
+        <v>4</v>
+      </c>
+      <c r="D246" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4">
+      <c r="A247">
+        <v>245</v>
+      </c>
+      <c r="B247">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C247" t="s">
+        <v>4</v>
+      </c>
+      <c r="D247" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4">
+      <c r="A248">
+        <v>246</v>
+      </c>
+      <c r="B248">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C248" t="s">
+        <v>4</v>
+      </c>
+      <c r="D248" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4">
+      <c r="A249">
+        <v>247</v>
+      </c>
+      <c r="B249">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C249" t="s">
+        <v>4</v>
+      </c>
+      <c r="D249" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4">
+      <c r="A250">
+        <v>248</v>
+      </c>
+      <c r="B250">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C250" t="s">
+        <v>4</v>
+      </c>
+      <c r="D250" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4">
+      <c r="A251">
+        <v>249</v>
+      </c>
+      <c r="B251">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C251" t="s">
+        <v>4</v>
+      </c>
+      <c r="D251" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4">
+      <c r="A252">
+        <v>250</v>
+      </c>
+      <c r="B252">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C252" t="s">
+        <v>4</v>
+      </c>
+      <c r="D252" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4">
+      <c r="A253">
+        <v>251</v>
+      </c>
+      <c r="B253">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C253" t="s">
+        <v>4</v>
+      </c>
+      <c r="D253" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4">
+      <c r="A254">
+        <v>252</v>
+      </c>
+      <c r="B254">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C254" t="s">
+        <v>4</v>
+      </c>
+      <c r="D254" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4">
+      <c r="A255">
+        <v>253</v>
+      </c>
+      <c r="B255">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C255" t="s">
+        <v>4</v>
+      </c>
+      <c r="D255" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4">
+      <c r="A256">
+        <v>254</v>
+      </c>
+      <c r="B256">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C256" t="s">
+        <v>4</v>
+      </c>
+      <c r="D256" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4">
+      <c r="A257">
+        <v>255</v>
+      </c>
+      <c r="B257">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C257" t="s">
+        <v>4</v>
+      </c>
+      <c r="D257" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4">
+      <c r="A258">
+        <v>256</v>
+      </c>
+      <c r="B258">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C258" t="s">
+        <v>4</v>
+      </c>
+      <c r="D258" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4">
+      <c r="A259">
+        <v>257</v>
+      </c>
+      <c r="B259">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C259" t="s">
+        <v>4</v>
+      </c>
+      <c r="D259" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4">
+      <c r="A260">
+        <v>258</v>
+      </c>
+      <c r="B260">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C260" t="s">
+        <v>4</v>
+      </c>
+      <c r="D260" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4">
+      <c r="A261">
+        <v>259</v>
+      </c>
+      <c r="B261">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C261" t="s">
+        <v>4</v>
+      </c>
+      <c r="D261" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4">
+      <c r="A262">
+        <v>260</v>
+      </c>
+      <c r="B262">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C262" t="s">
+        <v>4</v>
+      </c>
+      <c r="D262" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4">
+      <c r="A263">
+        <v>261</v>
+      </c>
+      <c r="B263">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C263" t="s">
+        <v>4</v>
+      </c>
+      <c r="D263" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4">
+      <c r="A264">
+        <v>262</v>
+      </c>
+      <c r="B264">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C264" t="s">
+        <v>4</v>
+      </c>
+      <c r="D264" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4">
+      <c r="A265">
+        <v>263</v>
+      </c>
+      <c r="B265">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C265" t="s">
+        <v>4</v>
+      </c>
+      <c r="D265" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4">
+      <c r="A266">
+        <v>264</v>
+      </c>
+      <c r="B266">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C266" t="s">
+        <v>4</v>
+      </c>
+      <c r="D266" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4">
+      <c r="A267">
+        <v>265</v>
+      </c>
+      <c r="B267">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C267" t="s">
+        <v>4</v>
+      </c>
+      <c r="D267" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4">
+      <c r="A268">
+        <v>266</v>
+      </c>
+      <c r="B268">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C268" t="s">
+        <v>4</v>
+      </c>
+      <c r="D268" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4">
+      <c r="A269">
+        <v>267</v>
+      </c>
+      <c r="B269">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C269" t="s">
+        <v>4</v>
+      </c>
+      <c r="D269" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4">
+      <c r="A270">
+        <v>268</v>
+      </c>
+      <c r="B270">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C270" t="s">
+        <v>4</v>
+      </c>
+      <c r="D270" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4">
+      <c r="A271">
+        <v>269</v>
+      </c>
+      <c r="B271">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C271" t="s">
+        <v>4</v>
+      </c>
+      <c r="D271" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4">
+      <c r="A272">
+        <v>270</v>
+      </c>
+      <c r="B272">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C272" t="s">
+        <v>4</v>
+      </c>
+      <c r="D272" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4">
+      <c r="A273">
+        <v>271</v>
+      </c>
+      <c r="B273">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C273" t="s">
+        <v>4</v>
+      </c>
+      <c r="D273" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4">
+      <c r="A274">
+        <v>272</v>
+      </c>
+      <c r="B274">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C274" t="s">
+        <v>4</v>
+      </c>
+      <c r="D274" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4">
+      <c r="A275">
+        <v>273</v>
+      </c>
+      <c r="B275">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C275" t="s">
+        <v>4</v>
+      </c>
+      <c r="D275" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4">
+      <c r="A276">
+        <v>274</v>
+      </c>
+      <c r="B276">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C276" t="s">
+        <v>4</v>
+      </c>
+      <c r="D276" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4">
+      <c r="A277">
+        <v>275</v>
+      </c>
+      <c r="B277">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C277" t="s">
+        <v>4</v>
+      </c>
+      <c r="D277" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4">
+      <c r="A278">
+        <v>276</v>
+      </c>
+      <c r="B278">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C278" t="s">
+        <v>4</v>
+      </c>
+      <c r="D278" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4">
+      <c r="A279">
+        <v>277</v>
+      </c>
+      <c r="B279">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C279" t="s">
+        <v>4</v>
+      </c>
+      <c r="D279" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4">
+      <c r="A280">
+        <v>278</v>
+      </c>
+      <c r="B280">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C280" t="s">
+        <v>4</v>
+      </c>
+      <c r="D280" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4">
+      <c r="A281">
+        <v>279</v>
+      </c>
+      <c r="B281">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C281" t="s">
+        <v>4</v>
+      </c>
+      <c r="D281" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4">
+      <c r="A282">
+        <v>280</v>
+      </c>
+      <c r="B282">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C282" t="s">
+        <v>4</v>
+      </c>
+      <c r="D282" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4">
+      <c r="A283">
+        <v>281</v>
+      </c>
+      <c r="B283">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C283" t="s">
+        <v>4</v>
+      </c>
+      <c r="D283" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4">
+      <c r="A284">
+        <v>282</v>
+      </c>
+      <c r="B284">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C284" t="s">
+        <v>4</v>
+      </c>
+      <c r="D284" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4">
+      <c r="A285">
+        <v>283</v>
+      </c>
+      <c r="B285">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C285" t="s">
+        <v>4</v>
+      </c>
+      <c r="D285" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4">
+      <c r="A286">
+        <v>284</v>
+      </c>
+      <c r="B286">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C286" t="s">
+        <v>4</v>
+      </c>
+      <c r="D286" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4">
+      <c r="A287">
+        <v>285</v>
+      </c>
+      <c r="B287">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C287" t="s">
+        <v>4</v>
+      </c>
+      <c r="D287" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4">
+      <c r="A288">
+        <v>286</v>
+      </c>
+      <c r="B288">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C288" t="s">
+        <v>4</v>
+      </c>
+      <c r="D288" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4">
+      <c r="A289">
+        <v>287</v>
+      </c>
+      <c r="B289">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C289" t="s">
+        <v>4</v>
+      </c>
+      <c r="D289" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4">
+      <c r="A290">
+        <v>288</v>
+      </c>
+      <c r="B290">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C290" t="s">
+        <v>4</v>
+      </c>
+      <c r="D290" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4">
+      <c r="A291">
+        <v>289</v>
+      </c>
+      <c r="B291">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C291" t="s">
+        <v>4</v>
+      </c>
+      <c r="D291" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4">
+      <c r="A292">
+        <v>290</v>
+      </c>
+      <c r="B292">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C292" t="s">
+        <v>4</v>
+      </c>
+      <c r="D292" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4">
+      <c r="A293">
+        <v>291</v>
+      </c>
+      <c r="B293">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C293" t="s">
+        <v>4</v>
+      </c>
+      <c r="D293" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4">
+      <c r="A294">
+        <v>292</v>
+      </c>
+      <c r="B294">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C294" t="s">
+        <v>4</v>
+      </c>
+      <c r="D294" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4">
+      <c r="A295">
+        <v>293</v>
+      </c>
+      <c r="B295">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C295" t="s">
+        <v>4</v>
+      </c>
+      <c r="D295" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4">
+      <c r="A296">
+        <v>294</v>
+      </c>
+      <c r="B296">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C296" t="s">
+        <v>4</v>
+      </c>
+      <c r="D296" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4">
+      <c r="A297">
+        <v>295</v>
+      </c>
+      <c r="B297">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C297" t="s">
+        <v>4</v>
+      </c>
+      <c r="D297" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4">
+      <c r="A298">
+        <v>296</v>
+      </c>
+      <c r="B298">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C298" t="s">
+        <v>4</v>
+      </c>
+      <c r="D298" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4">
+      <c r="A299">
+        <v>297</v>
+      </c>
+      <c r="B299">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C299" t="s">
+        <v>4</v>
+      </c>
+      <c r="D299" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4">
+      <c r="A300">
+        <v>298</v>
+      </c>
+      <c r="B300">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C300" t="s">
+        <v>4</v>
+      </c>
+      <c r="D300" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4">
+      <c r="A301">
+        <v>299</v>
+      </c>
+      <c r="B301">
+        <v>-14.5031208714828</v>
+      </c>
+      <c r="C301" t="s">
+        <v>4</v>
+      </c>
+      <c r="D301" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Python/LPF.xlsx
+++ b/Python/LPF.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>it</t>
   </si>
@@ -31,34 +31,46 @@
     <t>mu</t>
   </si>
   <si>
-    <t>[7.5    0.     2.5    0.     0.     0.     0.0001]</t>
-  </si>
-  <si>
-    <t>[11.7521  2.6145  6.5422  1.0707  1.8944  2.7147  5.5616]</t>
-  </si>
-  <si>
-    <t>[8.8231 0.0261 1.882  0.188  0.2508 0.2401 1.2309]</t>
-  </si>
-  <si>
-    <t>[7.8636 0.0202 2.2074 0.0283 0.0027 0.0198 0.6492]</t>
-  </si>
-  <si>
-    <t>[7.5037 0.0003 2.4972 0.0003 0.     0.0003 0.0065]</t>
-  </si>
-  <si>
-    <t>[ 0. 20.  0.  8.  8.  8.  1.]</t>
-  </si>
-  <si>
-    <t>[ 0.8077  7.837   5.3498 11.7344  7.1923  4.9212  3.2711]</t>
-  </si>
-  <si>
-    <t>[ 0.0632 10.7105  3.7537 11.6273  7.9368  6.0915  2.8453]</t>
-  </si>
-  <si>
-    <t>[ 0.0121 19.9242  0.0375  8.0134  7.9879  7.9752  1.0127]</t>
-  </si>
-  <si>
-    <t>[ 0.0001 19.9982  0.0008  8.0006  7.9999  7.9995  1.0003]</t>
+    <t>[0.4989 3.4986 0.0012 0.0003 0.0011 2.5003]</t>
+  </si>
+  <si>
+    <t>[0.3004 4.5497 0.0017 2.0423 2.7142 5.8986]</t>
+  </si>
+  <si>
+    <t>[0.1836 2.7533 0.1923 0.6759 0.4383 3.2989]</t>
+  </si>
+  <si>
+    <t>[0.211  3.1776 0.206  0.1993 0.372  2.7823]</t>
+  </si>
+  <si>
+    <t>[0.2989 3.3522 0.1551 0.0387 0.2471 2.5847]</t>
+  </si>
+  <si>
+    <t>[0.4829 3.4544 0.0281 0.0067 0.0062 2.4957]</t>
+  </si>
+  <si>
+    <t>[0.4938 3.4912 0.0068 0.0014 0.0057 2.5008]</t>
+  </si>
+  <si>
+    <t>[0.0011 0.0002 0.5009 1.9999 0.5004 0.0002]</t>
+  </si>
+  <si>
+    <t>[3.2358 1.0295 3.4538 2.7494 1.8115 0.6285]</t>
+  </si>
+  <si>
+    <t>[3.4652 0.5515 3.2548 2.1622 1.7619 0.389 ]</t>
+  </si>
+  <si>
+    <t>[0.6698 0.0001 0.9003 1.8695 0.7695 0.1306]</t>
+  </si>
+  <si>
+    <t>[0.0003 0.0121 0.5393 1.9701 0.4731 0.042 ]</t>
+  </si>
+  <si>
+    <t>[0.0474 0.0039 0.5329 1.997  0.5183 0.0069]</t>
+  </si>
+  <si>
+    <t>[0.0048 0.0008 0.5041 1.9997 0.5014 0.0011]</t>
   </si>
 </sst>
 </file>
@@ -416,7 +428,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -444,16 +456,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>275.1724137931036</v>
+        <v>-40.31118881118883</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E2">
-        <v>3.301832497789812e-05</v>
+        <v>0.0005619561101611313</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -461,16 +473,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>122.7226469119777</v>
+        <v>3.02079508250368</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E3">
-        <v>20.4537744853296</v>
+        <v>3.316749495611599</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -478,16 +490,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.04373194497468</v>
+        <v>6.310654637172315</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E4">
-        <v>2.840621990829118</v>
+        <v>1.049593271358661</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -495,16 +507,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.643727157761631</v>
+        <v>1.349499796486445</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E5">
-        <v>0.2739545262935189</v>
+        <v>0.2248883247088714</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -512,16 +524,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.0198105091945564</v>
+        <v>0.4260747858088543</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E6">
-        <v>0.003301751532421743</v>
+        <v>0.07100871096323549</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -529,16 +541,50 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.0001981099498493677</v>
+        <v>0.08490360155104959</v>
       </c>
       <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7">
+        <v>0.01415060362546616</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0.01691959386081265</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8">
+        <v>0.00281993230711966</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0.003371736660950475</v>
+      </c>
+      <c r="C9" t="s">
         <v>5</v>
       </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7">
-        <v>3.301832497789812e-05</v>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9">
+        <v>0.0005619561101611313</v>
       </c>
     </row>
   </sheetData>

--- a/Python/LPF.xlsx
+++ b/Python/LPF.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>it</t>
   </si>
@@ -31,46 +31,28 @@
     <t>mu</t>
   </si>
   <si>
-    <t>[0.4989 3.4986 0.0012 0.0003 0.0011 2.5003]</t>
-  </si>
-  <si>
-    <t>[0.3004 4.5497 0.0017 2.0423 2.7142 5.8986]</t>
-  </si>
-  <si>
-    <t>[0.1836 2.7533 0.1923 0.6759 0.4383 3.2989]</t>
-  </si>
-  <si>
-    <t>[0.211  3.1776 0.206  0.1993 0.372  2.7823]</t>
-  </si>
-  <si>
-    <t>[0.2989 3.3522 0.1551 0.0387 0.2471 2.5847]</t>
-  </si>
-  <si>
-    <t>[0.4829 3.4544 0.0281 0.0067 0.0062 2.4957]</t>
-  </si>
-  <si>
-    <t>[0.4938 3.4912 0.0068 0.0014 0.0057 2.5008]</t>
-  </si>
-  <si>
-    <t>[0.0011 0.0002 0.5009 1.9999 0.5004 0.0002]</t>
-  </si>
-  <si>
-    <t>[3.2358 1.0295 3.4538 2.7494 1.8115 0.6285]</t>
-  </si>
-  <si>
-    <t>[3.4652 0.5515 3.2548 2.1622 1.7619 0.389 ]</t>
-  </si>
-  <si>
-    <t>[0.6698 0.0001 0.9003 1.8695 0.7695 0.1306]</t>
-  </si>
-  <si>
-    <t>[0.0003 0.0121 0.5393 1.9701 0.4731 0.042 ]</t>
-  </si>
-  <si>
-    <t>[0.0474 0.0039 0.5329 1.997  0.5183 0.0069]</t>
-  </si>
-  <si>
-    <t>[0.0048 0.0008 0.5041 1.9997 0.5014 0.0011]</t>
+    <t>[0.0449 0.     0.9986 0.     0.0304 0.0001 0.0014]</t>
+  </si>
+  <si>
+    <t>[0.2533 0.0247 0.5251 0.0026 0.2962 0.1753 0.5198]</t>
+  </si>
+  <si>
+    <t>[0.2142 0.0013 0.5239 0.0004 0.0423 0.0194 0.4761]</t>
+  </si>
+  <si>
+    <t>[0.0368 0.     0.9664 0.     0.0299 0.002  0.0336]</t>
+  </si>
+  <si>
+    <t>[ 0.0005 14.8813  0.0002 10.5196  0.0022  1.4998  0.0503]</t>
+  </si>
+  <si>
+    <t>[0.5617 6.7394 1.2004 8.2935 0.0526 2.3582 1.241 ]</t>
+  </si>
+  <si>
+    <t>[ 0.0615  5.973   0.012  10.9823  0.0373  1.5978  0.0647]</t>
+  </si>
+  <si>
+    <t>[ 0.0473  6.4283  0.0011 10.8126  0.0038  1.5927  0.0531]</t>
   </si>
 </sst>
 </file>
@@ -428,7 +410,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -456,16 +438,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-40.31118881118883</v>
+        <v>39.80403590861816</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E2">
-        <v>0.0005619561101611313</v>
+        <v>0.0001409231588711285</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -473,16 +455,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.02079508250368</v>
+        <v>4.2792007850125</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E3">
-        <v>3.316749495611599</v>
+        <v>0.2906343328592485</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -490,16 +472,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.310654637172315</v>
+        <v>0.07753907862294944</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E4">
-        <v>1.049593271358661</v>
+        <v>0.01350536936623805</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -507,16 +489,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.349499796486445</v>
+        <v>0.008354892348157325</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E5">
-        <v>0.2248883247088714</v>
+        <v>0.001193556049736766</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -524,67 +506,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4260747858088543</v>
+        <v>0.00098646211209788</v>
       </c>
       <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
         <v>9</v>
       </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
       <c r="E6">
-        <v>0.07100871096323549</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>0.08490360155104959</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7">
-        <v>0.01415060362546616</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>0.01691959386081265</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8">
-        <v>0.00281993230711966</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>0.003371736660950475</v>
-      </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9">
-        <v>0.0005619561101611313</v>
+        <v>0.0001409231588711285</v>
       </c>
     </row>
   </sheetData>
